--- a/data/trans_camb/P19C01-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.846828620795809</v>
+        <v>-3.19575609570165</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.5188441095872</v>
+        <v>10.32271098918291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.67632933816153</v>
+        <v>14.40147872377902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9587529246744131</v>
+        <v>-1.228761027098112</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>10.83530851340482</v>
+        <v>10.77506743335958</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>19.29915073427467</v>
+        <v>19.70281552822121</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.844502024548207</v>
+        <v>-0.653005081075026</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>11.83887277526014</v>
+        <v>11.92867150819559</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.46566715538408</v>
+        <v>18.64084376279406</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.878041589698872</v>
+        <v>7.586027291077039</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.45136678678922</v>
+        <v>21.42365022075644</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.58914155380011</v>
+        <v>27.82571057555952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.845741337898797</v>
+        <v>7.540242876678718</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>20.40597138807119</v>
+        <v>20.28786995217437</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>28.88401091934972</v>
+        <v>29.38726703050819</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.95030437202894</v>
+        <v>6.008097955676604</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.93595285095169</v>
+        <v>18.78856150204823</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>26.95807468235398</v>
+        <v>26.52931344256443</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.6997238319272187</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.9203434176177441</v>
+        <v>0.9203434176177437</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1233324966958306</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1124705293190197</v>
+        <v>-0.1204396143760129</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3885470910244193</v>
+        <v>0.3910949999353274</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5485615274804319</v>
+        <v>0.5234426935884779</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03303940412645109</v>
+        <v>-0.0430654722659472</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3778535888035324</v>
+        <v>0.3809003272881094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6613753826954544</v>
+        <v>0.681744977828172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03210959803399194</v>
+        <v>-0.02345406073735208</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4349094374915086</v>
+        <v>0.4334479551415459</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6634702340753054</v>
+        <v>0.6984117632083278</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4082355079354262</v>
+        <v>0.3939272864739876</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.114611658699129</v>
+        <v>1.113484838526478</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.404131407851752</v>
+        <v>1.409851570193159</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3181426572030832</v>
+        <v>0.3142648598713925</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8534630867610731</v>
+        <v>0.8531123834139165</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.221978114383248</v>
+        <v>1.214095069668628</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2639278125682907</v>
+        <v>0.2607533027801689</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8376533574724819</v>
+        <v>0.8075562311862086</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.178441044483084</v>
+        <v>1.157099032026024</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.074513753790157</v>
+        <v>-3.405421407411834</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.62441833664114</v>
+        <v>12.49355779944403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19.53587924701586</v>
+        <v>19.30554334871085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.410398063762131</v>
+        <v>-0.3602153320725466</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.406225264688813</v>
+        <v>7.395957762280824</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.64671701013696</v>
+        <v>21.54936507420048</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.26230153403677</v>
+        <v>-0.5090643592220657</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>11.25764791638615</v>
+        <v>11.19345292261547</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>22.16863441409991</v>
+        <v>22.1725523077274</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.805461186486275</v>
+        <v>5.70550626943152</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.1276833070467</v>
+        <v>21.88964427063853</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28.92412219700065</v>
+        <v>29.01188695700449</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.758658947819939</v>
+        <v>9.030388281923553</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>16.57623754223892</v>
+        <v>17.12107421587038</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>29.92652249284752</v>
+        <v>30.10979283715512</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.9620170948899</v>
+        <v>5.901069283492316</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.0029594281072</v>
+        <v>17.84897629822487</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>28.56596926113314</v>
+        <v>28.45016088914564</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1120812852915491</v>
+        <v>-0.1171032602956992</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4440099691728185</v>
+        <v>0.4358930241059821</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7063074761622361</v>
+        <v>0.6935549079138346</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01022500167072196</v>
+        <v>-0.01120072085523924</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2194210607565426</v>
+        <v>0.224219562283505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6474510531962375</v>
+        <v>0.6421782703137294</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.008710832586049825</v>
+        <v>-0.01752714054255525</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3757491765694184</v>
+        <v>0.3728365482005485</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7320854651249616</v>
+        <v>0.7188012759042886</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.247338849565447</v>
+        <v>0.2377314604163911</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9479535210963584</v>
+        <v>0.9404635603908679</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.253785979249066</v>
+        <v>1.237676479895955</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3089578569119692</v>
+        <v>0.3148144092586188</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5826900321996398</v>
+        <v>0.6161396781413809</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.070697728293531</v>
+        <v>1.067853757290677</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2179429892040893</v>
+        <v>0.2150694571150902</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6777466097517337</v>
+        <v>0.6579393260024983</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.077022745322108</v>
+        <v>1.059832068542279</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.503656046083292</v>
+        <v>-6.183061214395736</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.273597227302333</v>
+        <v>3.569612043339418</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28.39006236211364</v>
+        <v>28.29849637415845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.644893090361953</v>
+        <v>-1.542127390941365</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>8.16382885740863</v>
+        <v>7.786923671435534</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>27.98497356213111</v>
+        <v>28.18058740244483</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.80999719318633</v>
+        <v>-2.399631461211333</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.258703233773366</v>
+        <v>7.474161669372953</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>29.35244556702495</v>
+        <v>29.59491013214186</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.970413230481374</v>
+        <v>3.16087903501643</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.57344800387994</v>
+        <v>13.07101467337531</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37.00969878788679</v>
+        <v>37.17131141095306</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.086229355622175</v>
+        <v>7.773192350354571</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.26351477061855</v>
+        <v>18.74156113936</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>36.53912817995176</v>
+        <v>36.82106221030666</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.798474847140827</v>
+        <v>4.390115846003781</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.31910654398502</v>
+        <v>14.20343572153816</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>35.65589580389946</v>
+        <v>35.4743891570773</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1836806753303559</v>
+        <v>-0.179107520687287</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.09288673693880929</v>
+        <v>0.1001446035630397</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7923758583605449</v>
+        <v>0.810783572283461</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04828285090223634</v>
+        <v>-0.03983828258537225</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2307749106443661</v>
+        <v>0.2230341206115719</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7881058107039096</v>
+        <v>0.795623493523978</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0807658245540394</v>
+        <v>-0.06968215307550088</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2148293302310048</v>
+        <v>0.2130296291817151</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.839301588775796</v>
+        <v>0.8537199412263689</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09914135812337146</v>
+        <v>0.101361027699139</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4381077113377155</v>
+        <v>0.4295226111661467</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.233485997331258</v>
+        <v>1.232678236129455</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2623360776006725</v>
+        <v>0.254675251936725</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5970263201455388</v>
+        <v>0.6171812504924341</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.209164792078884</v>
+        <v>1.226191356163634</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1216004800916434</v>
+        <v>0.1376935184978674</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4629252881791815</v>
+        <v>0.4544595630384553</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.145722848769765</v>
+        <v>1.14645253370946</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.529424436432225</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23.62745215728395</v>
+        <v>23.62745215728393</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.554083358900322</v>
@@ -1306,7 +1306,7 @@
         <v>1.197989723912568</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>21.67848503551736</v>
+        <v>21.67848503551737</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.369625869347319</v>
+        <v>-7.976309588869405</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.934412791550017</v>
+        <v>-5.325075994683337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17.03056919407805</v>
+        <v>16.51847160054295</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.70222227637195</v>
+        <v>-9.886975338589039</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.274320027238022</v>
+        <v>-7.346902942168233</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.38691943162005</v>
+        <v>12.99070030423675</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.305942673302914</v>
+        <v>-7.490778203673429</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.274554446519094</v>
+        <v>-4.162795819762145</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>16.71297094313201</v>
+        <v>17.27465570141502</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.433424530150464</v>
+        <v>7.047306490499852</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.536173618572136</v>
+        <v>8.95550228466807</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29.74932291205564</v>
+        <v>29.66350256253733</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.9625067309467</v>
+        <v>5.018993654755969</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.826665123876913</v>
+        <v>8.25543309473098</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.5882943193617</v>
+        <v>25.68189086080616</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.705124467037737</v>
+        <v>3.661644631779354</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.321785278419087</v>
+        <v>6.220476669630953</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>26.00299793210377</v>
+        <v>26.3621836741025</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.03922032364382026</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6058987279222935</v>
+        <v>0.6058987279222929</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.06101500476311469</v>
@@ -1411,7 +1411,7 @@
         <v>0.02973901641981622</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5381488752027412</v>
+        <v>0.5381488752027416</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1743646446086176</v>
+        <v>-0.1871816383066346</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1341677572325691</v>
+        <v>-0.1231891502405188</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3898948213990857</v>
+        <v>0.379311372007487</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2306200439628366</v>
+        <v>-0.2161456468326881</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1597242720956689</v>
+        <v>-0.1535650615867869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2630521902845564</v>
+        <v>0.2709016654778327</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1483835700889298</v>
+        <v>-0.1716531119613169</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07670631776414734</v>
+        <v>-0.09581922529121077</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3905619350636707</v>
+        <v>0.3894388121188164</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2119110848359936</v>
+        <v>0.2039776818754015</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2554286472480496</v>
+        <v>0.2665731472618218</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8554439292829239</v>
+        <v>0.8633164280776204</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1311747335423265</v>
+        <v>0.1362868425990144</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2064841358966826</v>
+        <v>0.2228795483718904</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6977218837116783</v>
+        <v>0.6898672325865438</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09961640844512308</v>
+        <v>0.09790081988693108</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1731744804737187</v>
+        <v>0.1697135887817625</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7132775653720622</v>
+        <v>0.7239350714245681</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>11.53431840113897</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>27.81744107992783</v>
+        <v>27.81744107992782</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.997434811727494</v>
+        <v>-2.817121592286016</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.493709835595755</v>
+        <v>8.525160289487953</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24.96392506803321</v>
+        <v>25.11306644852224</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2359522228071714</v>
+        <v>0.3043154085960111</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>9.253364293214796</v>
+        <v>9.572509847990496</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>25.57237113069492</v>
+        <v>25.71321523153248</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.4979435977031625</v>
+        <v>-0.6678044606712845</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>9.702327510344906</v>
+        <v>9.415342709668611</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>25.9685745375387</v>
+        <v>26.17450415299009</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.171793328341488</v>
+        <v>2.137407874816662</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.80175250183221</v>
+        <v>13.78765259612799</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>30.29766362240051</v>
+        <v>30.51141232065629</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.23718223127374</v>
+        <v>5.417435377547682</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.60829458872175</v>
+        <v>14.72021335906766</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>30.26844999504023</v>
+        <v>30.02764604230709</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.120111941903217</v>
+        <v>3.233939348515253</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.27968095606981</v>
+        <v>13.36266241248784</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>29.50164934692931</v>
+        <v>29.53013220385172</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.376455726907544</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.9079023691090349</v>
+        <v>0.9079023691090345</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.09476327847461088</v>
+        <v>-0.09073793076521577</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2731804567610145</v>
+        <v>0.2756982008007782</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7957532875449708</v>
+        <v>0.8142833087890194</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.007250179501936885</v>
+        <v>0.007985678854857769</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2788694004828458</v>
+        <v>0.2893343237319707</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7719236718323046</v>
+        <v>0.785839027995383</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01617724720617759</v>
+        <v>-0.02095331346874073</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3055227682278499</v>
+        <v>0.2964137468539469</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.8154324181694106</v>
+        <v>0.8241327913381261</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.07581331693432279</v>
+        <v>0.07589562300355245</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.488494588495079</v>
+        <v>0.480917178595447</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.071736899984584</v>
+        <v>1.096083918559515</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.172168052429697</v>
+        <v>0.1774300204387468</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.481330421714352</v>
+        <v>0.4821000158133165</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.005642687261242</v>
+        <v>1.010659525901126</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.104452293706782</v>
+        <v>0.1088782406653367</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4492835708478342</v>
+        <v>0.4509967336170033</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9981285234794108</v>
+        <v>0.9986332190786108</v>
       </c>
     </row>
     <row r="34">
